--- a/Schandom.xlsx
+++ b/Schandom.xlsx
@@ -5,24 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Project Schandom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twanb\Documents\NK-Schandom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5484C0-D3B5-4A1C-8A86-5685A9B22CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F79810-275F-4E9F-AE91-9966B215B593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
     <sheet name="Games" sheetId="2" r:id="rId2"/>
     <sheet name="Prefs" sheetId="3" r:id="rId3"/>
+    <sheet name="Berger12" sheetId="4" r:id="rId4"/>
+    <sheet name="Berger10" sheetId="5" r:id="rId5"/>
+    <sheet name="Berger8" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="127">
   <si>
     <t>ID</t>
   </si>
@@ -172,6 +175,237 @@
   </si>
   <si>
     <t>TWB</t>
+  </si>
+  <si>
+    <t>BYE</t>
+  </si>
+  <si>
+    <t>1:12</t>
+  </si>
+  <si>
+    <t>2:11</t>
+  </si>
+  <si>
+    <t>3:10</t>
+  </si>
+  <si>
+    <t>4:9</t>
+  </si>
+  <si>
+    <t>5:8</t>
+  </si>
+  <si>
+    <t>6:7</t>
+  </si>
+  <si>
+    <t>12:7</t>
+  </si>
+  <si>
+    <t>8:6</t>
+  </si>
+  <si>
+    <t>9:5</t>
+  </si>
+  <si>
+    <t>10:4</t>
+  </si>
+  <si>
+    <t>11:3</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>2:12</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>4:11</t>
+  </si>
+  <si>
+    <t>5:10</t>
+  </si>
+  <si>
+    <t>6:9</t>
+  </si>
+  <si>
+    <t>7:8</t>
+  </si>
+  <si>
+    <t>12:8</t>
+  </si>
+  <si>
+    <t>9:7</t>
+  </si>
+  <si>
+    <t>10:6</t>
+  </si>
+  <si>
+    <t>11:5</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>3:12</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>6:11</t>
+  </si>
+  <si>
+    <t>7:10</t>
+  </si>
+  <si>
+    <t>8:9</t>
+  </si>
+  <si>
+    <t>12:9</t>
+  </si>
+  <si>
+    <t>10:8</t>
+  </si>
+  <si>
+    <t>11:7</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>4:12</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>8:11</t>
+  </si>
+  <si>
+    <t>9:10</t>
+  </si>
+  <si>
+    <t>12:10</t>
+  </si>
+  <si>
+    <t>11:9</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>2:7</t>
+  </si>
+  <si>
+    <t>3:6</t>
+  </si>
+  <si>
+    <t>4:5</t>
+  </si>
+  <si>
+    <t>5:12</t>
+  </si>
+  <si>
+    <t>6:4</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>10:11</t>
+  </si>
+  <si>
+    <t>12:11</t>
+  </si>
+  <si>
+    <t>1:10</t>
+  </si>
+  <si>
+    <t>2:9</t>
+  </si>
+  <si>
+    <t>3:8</t>
+  </si>
+  <si>
+    <t>4:7</t>
+  </si>
+  <si>
+    <t>5:6</t>
+  </si>
+  <si>
+    <t>6:12</t>
+  </si>
+  <si>
+    <t>7:5</t>
+  </si>
+  <si>
+    <t>8:4</t>
+  </si>
+  <si>
+    <t>9:3</t>
+  </si>
+  <si>
+    <t>10:2</t>
+  </si>
+  <si>
+    <t>11:1</t>
+  </si>
+  <si>
+    <t>JOB</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>2:10</t>
+  </si>
+  <si>
+    <t>10:7</t>
+  </si>
+  <si>
+    <t>4:10</t>
+  </si>
+  <si>
+    <t>10:9</t>
+  </si>
+  <si>
+    <t>8:5</t>
+  </si>
+  <si>
+    <t>2:8</t>
+  </si>
+  <si>
+    <t>8:7</t>
+  </si>
+  <si>
+    <t>4:8</t>
   </si>
 </sst>
 </file>
@@ -193,15 +427,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -209,11 +449,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,6 +485,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -625,6 +893,30 @@
       </c>
       <c r="B10" s="1">
         <v>2040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2030</v>
       </c>
     </row>
   </sheetData>
@@ -837,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3D358C-A238-4518-9516-78D5730C6DCB}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -1253,4 +1545,521 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772153BA-5CAE-46C1-BC4B-377C4E1B2C62}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85865546-6824-4C6D-A94B-4273F5B117D6}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D798F37-0E69-419A-83C6-08D737C39BA3}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>